--- a/data-born.xlsx
+++ b/data-born.xlsx
@@ -977,12 +977,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1267,7 +1268,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1275,12 +1276,14 @@
     <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.83203125" customWidth="1"/>
     <col min="3" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.83203125" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.83203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.83203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.83203125" style="5" customWidth="1"/>
+    <col min="15" max="16" width="11.83203125" customWidth="1"/>
     <col min="17" max="17" width="35.6640625" customWidth="1"/>
     <col min="18" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.6640625" customWidth="1"/>
@@ -1302,31 +1305,31 @@
       <c r="E1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>248</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1437,17 +1440,17 @@
         <v>278</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
         <v>19048</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="1" t="s">
         <v>180</v>
       </c>
@@ -1481,10 +1484,10 @@
       <c r="Y2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB2" s="1" t="s">
@@ -1556,19 +1559,19 @@
         <v>279</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
         <v>10000</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>12000</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="1" t="s">
         <v>237</v>
       </c>
@@ -1602,10 +1605,10 @@
       <c r="Y3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB3" s="1" t="s">
@@ -1635,7 +1638,7 @@
       <c r="AJ3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AK3" s="3">
         <v>0.2</v>
       </c>
       <c r="AL3" s="1" t="s">
@@ -1677,15 +1680,15 @@
         <v>280</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
         <v>12000</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -1721,10 +1724,10 @@
       <c r="Y4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB4" s="1" t="s">
@@ -1754,7 +1757,7 @@
       <c r="AJ4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK4" s="4">
+      <c r="AK4" s="3">
         <v>0.2</v>
       </c>
       <c r="AL4" s="1" t="s">
@@ -1796,17 +1799,17 @@
         <v>281</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
         <v>10000</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="1" t="s">
         <v>185</v>
       </c>
@@ -1840,10 +1843,10 @@
       <c r="Y5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB5" s="1" t="s">
@@ -1915,17 +1918,17 @@
         <v>282</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
         <v>5000</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="1" t="s">
         <v>183</v>
       </c>
@@ -1959,10 +1962,10 @@
       <c r="Y6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Z6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AA6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB6" s="1" t="s">
@@ -2034,17 +2037,17 @@
         <v>283</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
         <v>5000</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
         <v>10000</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -2080,10 +2083,10 @@
       <c r="Y7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AA7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB7" s="1" t="s">
@@ -2155,17 +2158,17 @@
         <v>284</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
         <v>7619</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="1" t="s">
         <v>188</v>
       </c>
@@ -2197,10 +2200,10 @@
       <c r="Y8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="Z8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AA8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB8" s="1" t="s">
@@ -2230,7 +2233,7 @@
       <c r="AJ8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK8" s="4">
+      <c r="AK8" s="3">
         <v>0.35</v>
       </c>
       <c r="AL8" s="1" t="s">
@@ -2272,17 +2275,17 @@
         <v>285</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
         <v>3500</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
         <v>7000</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -2316,10 +2319,10 @@
       <c r="Y9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="Z9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AA9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB9" s="1" t="s">
@@ -2349,7 +2352,7 @@
       <c r="AJ9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK9" s="4">
+      <c r="AK9" s="3">
         <v>0.35</v>
       </c>
       <c r="AL9" s="1" t="s">
@@ -2391,19 +2394,19 @@
         <v>286</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>1200</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
         <v>2620</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
         <v>5300</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -2439,10 +2442,10 @@
       <c r="Y10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="Z10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AA10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB10" s="1" t="s">
@@ -2472,7 +2475,7 @@
       <c r="AJ10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK10" s="4">
+      <c r="AK10" s="3">
         <v>0.38</v>
       </c>
       <c r="AL10" s="1" t="s">
@@ -2514,17 +2517,17 @@
         <v>287</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
         <v>2000</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="1" t="s">
         <v>197</v>
       </c>
@@ -2558,10 +2561,10 @@
       <c r="Y11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="Z11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AA11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB11" s="1" t="s">
@@ -2591,7 +2594,7 @@
       <c r="AJ11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK11" s="4">
+      <c r="AK11" s="3">
         <v>0.35</v>
       </c>
       <c r="AL11" s="1" t="s">
@@ -2633,17 +2636,17 @@
         <v>288</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
         <v>2200</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
         <v>4400</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -2679,10 +2682,10 @@
       <c r="Y12" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="Z12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AA12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB12" s="1" t="s">
@@ -2754,19 +2757,19 @@
         <v>289</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>600</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
         <v>1600</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
         <v>3300</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -2800,10 +2803,10 @@
       <c r="Y13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="Z13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AA13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB13" s="1" t="s">
@@ -2833,7 +2836,7 @@
       <c r="AJ13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK13" s="4">
+      <c r="AK13" s="3">
         <v>0.5</v>
       </c>
       <c r="AL13" s="1" t="s">
@@ -2875,17 +2878,17 @@
         <v>290</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
         <v>1600</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="1" t="s">
         <v>207</v>
       </c>
@@ -2919,10 +2922,10 @@
       <c r="Y14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AA14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB14" s="1" t="s">
@@ -2952,7 +2955,7 @@
       <c r="AJ14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK14" s="4">
+      <c r="AK14" s="3">
         <v>0.5</v>
       </c>
       <c r="AL14" s="1" t="s">
@@ -2994,17 +2997,17 @@
         <v>291</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4">
         <v>1429</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
         <v>3000</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -3040,10 +3043,10 @@
       <c r="Y15" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="Z15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AA15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB15" s="1" t="s">
@@ -3073,7 +3076,7 @@
       <c r="AJ15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK15" s="4">
+      <c r="AK15" s="3">
         <v>0.5</v>
       </c>
       <c r="AL15" s="1" t="s">
@@ -3115,17 +3118,17 @@
         <v>292</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
         <v>1300</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
         <v>2700</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -3161,10 +3164,10 @@
       <c r="Y16" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="Z16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA16" s="3" t="s">
+      <c r="AA16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB16" s="1" t="s">
@@ -3194,7 +3197,7 @@
       <c r="AJ16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AK16" s="4">
+      <c r="AK16" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="AL16" s="1" t="s">
@@ -3236,17 +3239,17 @@
         <v>293</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
         <v>1191</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4">
         <v>2381</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -3282,10 +3285,10 @@
       <c r="Y17" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="Z17" s="3" t="s">
+      <c r="Z17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="AA17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB17" s="1" t="s">
@@ -3315,7 +3318,7 @@
       <c r="AJ17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AK17" s="4">
+      <c r="AK17" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="AL17" s="1" t="s">
@@ -3357,17 +3360,17 @@
         <v>294</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>500</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1" t="s">
@@ -3397,10 +3400,10 @@
       <c r="Y18" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="Z18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA18" s="3" t="s">
+      <c r="AA18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB18" s="1" t="s">
@@ -3430,7 +3433,7 @@
       <c r="AJ18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK18" s="4">
+      <c r="AK18" s="3">
         <v>0.5</v>
       </c>
       <c r="AL18" s="1" t="s">
@@ -3472,17 +3475,17 @@
         <v>295</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
         <v>1800</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4">
         <v>3800</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -3518,10 +3521,10 @@
       <c r="Y19" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="Z19" s="3" t="s">
+      <c r="Z19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA19" s="3" t="s">
+      <c r="AA19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB19" s="1" t="s">
@@ -3551,7 +3554,7 @@
       <c r="AJ19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK19" s="4">
+      <c r="AK19" s="3">
         <v>0.5</v>
       </c>
       <c r="AL19" s="1" t="s">
@@ -3593,19 +3596,19 @@
         <v>296</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
         <v>3500</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
         <v>7000</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
         <v>230</v>
@@ -3637,10 +3640,10 @@
       <c r="Y20" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="Z20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA20" s="3" t="s">
+      <c r="AA20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB20" s="1" t="s">
@@ -3670,7 +3673,7 @@
       <c r="AJ20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK20" s="4">
+      <c r="AK20" s="3">
         <v>0.2</v>
       </c>
       <c r="AL20" s="1" t="s">
@@ -3712,17 +3715,17 @@
         <v>297</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
         <v>1800</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
@@ -3752,10 +3755,10 @@
       <c r="Y21" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="Z21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA21" s="3" t="s">
+      <c r="AA21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB21" s="1" t="s">
@@ -3827,17 +3830,17 @@
         <v>298</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
         <v>2500</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4">
         <v>5000</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -3871,10 +3874,10 @@
       <c r="Y22" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Z22" s="3" t="s">
+      <c r="Z22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA22" s="3" t="s">
+      <c r="AA22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AB22" s="1" t="s">
@@ -3904,7 +3907,7 @@
       <c r="AJ22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK22" s="4">
+      <c r="AK22" s="3">
         <v>0.35</v>
       </c>
       <c r="AL22" s="1" t="s">
@@ -3948,17 +3951,17 @@
       <c r="E23" s="1">
         <v>400</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
         <v>1143</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
         <v>225</v>
@@ -3985,7 +3988,7 @@
       <c r="AJ23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK23" s="4">
+      <c r="AK23" s="3">
         <v>0.5</v>
       </c>
       <c r="AL23" s="1"/>
@@ -4011,17 +4014,17 @@
         <v>300</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4">
         <v>1429</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -4046,7 +4049,7 @@
       <c r="AJ24" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AK24" s="4">
+      <c r="AK24" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="AL24" s="1"/>
@@ -4072,15 +4075,15 @@
         <v>301</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4">
         <v>3238</v>
       </c>
       <c r="O25" s="1"/>
@@ -4107,7 +4110,7 @@
       <c r="AJ25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK25" s="4">
+      <c r="AK25" s="3">
         <v>0.5</v>
       </c>
       <c r="AL25" s="1"/>

--- a/data-born.xlsx
+++ b/data-born.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="303">
   <si>
     <t>Name</t>
   </si>
@@ -62,51 +62,21 @@
     <t>About</t>
   </si>
   <si>
-    <t>Titratable acidity</t>
-  </si>
-  <si>
     <t>pH</t>
   </si>
   <si>
-    <t>Amino acid</t>
-  </si>
-  <si>
-    <t>Nihonshu-do</t>
-  </si>
-  <si>
-    <t>Residual sugar (glucose)</t>
-  </si>
-  <si>
     <t>Alcohol</t>
   </si>
   <si>
     <t>Rice</t>
   </si>
   <si>
-    <t>Seimai-buai</t>
-  </si>
-  <si>
-    <t>Koji production</t>
-  </si>
-  <si>
     <t>Yeast</t>
   </si>
   <si>
-    <t>Fermenting period</t>
-  </si>
-  <si>
-    <t>Fermenting vat</t>
-  </si>
-  <si>
-    <t>Fermenting temperature</t>
-  </si>
-  <si>
     <t>Finishing</t>
   </si>
   <si>
-    <t>Other featuers regarding sake making</t>
-  </si>
-  <si>
     <t>10 years aged in Oak.Barrel</t>
   </si>
   <si>
@@ -542,21 +512,12 @@
     <t>1-11 Yoshie-cho, Sabae-shi, Fukui 916-0021</t>
   </si>
   <si>
-    <t>Aged year</t>
-  </si>
-  <si>
-    <t>Aged temperature</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>42 days</t>
   </si>
   <si>
-    <t>Name@ja</t>
-  </si>
-  <si>
     <t>梵・天使のめざめ</t>
   </si>
   <si>
@@ -746,45 +707,6 @@
     <t>皇室献上品</t>
   </si>
   <si>
-    <t>Price (180mL)</t>
-  </si>
-  <si>
-    <t>Price (300mL)</t>
-  </si>
-  <si>
-    <t>Price (375mL)</t>
-  </si>
-  <si>
-    <t>Price (500mL)</t>
-  </si>
-  <si>
-    <t>Price (720mL)</t>
-  </si>
-  <si>
-    <t>Price (720mL+Box)</t>
-  </si>
-  <si>
-    <t>Price (750mL)</t>
-  </si>
-  <si>
-    <t>Price (300mL x 3)</t>
-  </si>
-  <si>
-    <t>Price (1000mL)</t>
-  </si>
-  <si>
-    <t>Price (1,800mL)</t>
-  </si>
-  <si>
-    <t>Info@ja</t>
-  </si>
-  <si>
-    <t>Awards@ja</t>
-  </si>
-  <si>
-    <t>Serving suggestion</t>
-  </si>
-  <si>
     <t>Gohyakumangoku</t>
   </si>
   <si>
@@ -933,6 +855,87 @@
   </si>
   <si>
     <t>https://codeforfukui.github.io/born/images_png/14.png</t>
+  </si>
+  <si>
+    <t>Name_ja</t>
+  </si>
+  <si>
+    <t>Price_180mL</t>
+  </si>
+  <si>
+    <t>Price_300mL</t>
+  </si>
+  <si>
+    <t>Price_375mL</t>
+  </si>
+  <si>
+    <t>Price_500mL</t>
+  </si>
+  <si>
+    <t>Price_720mL</t>
+  </si>
+  <si>
+    <t>Price_720mLwithBox</t>
+  </si>
+  <si>
+    <t>Price_750mL</t>
+  </si>
+  <si>
+    <t>Price_300mLx3</t>
+  </si>
+  <si>
+    <t>Price_1000mL</t>
+  </si>
+  <si>
+    <t>Price_1800mL</t>
+  </si>
+  <si>
+    <t>Info_ja</t>
+  </si>
+  <si>
+    <t>Awards_ja</t>
+  </si>
+  <si>
+    <t>AgedYear</t>
+  </si>
+  <si>
+    <t>AgedTemperature</t>
+  </si>
+  <si>
+    <t>KosherCertified</t>
+  </si>
+  <si>
+    <t>TitratableAcidity</t>
+  </si>
+  <si>
+    <t>AminoAcid</t>
+  </si>
+  <si>
+    <t>NihonshuDo</t>
+  </si>
+  <si>
+    <t>ResidualSugar_glucose</t>
+  </si>
+  <si>
+    <t>SeimaiBuai</t>
+  </si>
+  <si>
+    <t>KojiProduction</t>
+  </si>
+  <si>
+    <t>FermentingPeriod</t>
+  </si>
+  <si>
+    <t>FermentingVat</t>
+  </si>
+  <si>
+    <t>FermentingTemperature</t>
+  </si>
+  <si>
+    <t>OtherFeatuersRegardingSakeMaking</t>
+  </si>
+  <si>
+    <t>ServingSuggestion</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1271,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1294,61 +1297,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>59</v>
+        <v>291</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>2</v>
@@ -1378,66 +1381,66 @@
         <v>10</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="AR1" s="1" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="4"/>
@@ -1452,13 +1455,13 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="R2" s="1">
         <v>10</v>
@@ -1467,96 +1470,96 @@
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AG2" s="1">
         <v>-15</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
@@ -1573,13 +1576,13 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="R3" s="1">
         <v>5</v>
@@ -1588,96 +1591,96 @@
         <v>-8</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Z3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD3" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AE3" s="1">
         <v>4</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AG3" s="1">
         <v>2</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK3" s="3">
         <v>0.2</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
@@ -1692,13 +1695,13 @@
         <v>12000</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="R4" s="1">
         <v>3</v>
@@ -1707,96 +1710,96 @@
         <v>-5</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="Z4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD4" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="AE4" s="1">
         <v>4</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AG4" s="1">
         <v>2</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK4" s="3">
         <v>0.2</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN4" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO4" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
@@ -1811,13 +1814,13 @@
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="R5" s="1">
         <v>5</v>
@@ -1826,96 +1829,96 @@
         <v>-8</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Z5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD5" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AE5" s="1">
         <v>4</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AG5" s="1">
         <v>2</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN5" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO5" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="4"/>
@@ -1930,13 +1933,13 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R6" s="1">
         <v>2</v>
@@ -1945,96 +1948,96 @@
         <v>0</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Z6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD6" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AE6" s="1">
         <v>4</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AG6" s="1">
         <v>2</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN6" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO6" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="4"/>
@@ -2051,13 +2054,13 @@
         <v>10000</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
@@ -2066,96 +2069,96 @@
         <v>0</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="Z7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD7" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AE7" s="1">
         <v>4</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AG7" s="1">
         <v>2</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN7" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO7" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
@@ -2170,11 +2173,11 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R8" s="1">
         <v>2</v>
@@ -2183,96 +2186,96 @@
         <v>0</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Z8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD8" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="AE8" s="1">
         <v>4</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AG8" s="1">
         <v>2</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK8" s="3">
         <v>0.35</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN8" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO8" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="4"/>
@@ -2289,11 +2292,11 @@
         <v>7000</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R9" s="1">
         <v>2</v>
@@ -2302,96 +2305,96 @@
         <v>0</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="Z9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD9" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AE9" s="1">
         <v>4</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AG9" s="1">
         <v>2</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK9" s="3">
         <v>0.35</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN9" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO9" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="4">
@@ -2410,13 +2413,13 @@
         <v>5300</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
@@ -2425,96 +2428,96 @@
         <v>0</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="Z10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD10" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="AE10" s="1">
         <v>3.9</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AG10" s="1">
         <v>5</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK10" s="3">
         <v>0.38</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN10" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO10" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS10" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="4"/>
@@ -2529,13 +2532,13 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="R11" s="1">
         <v>2</v>
@@ -2544,96 +2547,96 @@
         <v>-5</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Z11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD11" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AE11" s="1">
         <v>4</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AG11" s="1">
         <v>2</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK11" s="3">
         <v>0.35</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN11" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO11" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="4"/>
@@ -2650,13 +2653,13 @@
         <v>4400</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R12" s="1">
         <v>2</v>
@@ -2665,96 +2668,96 @@
         <v>0</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="Z12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD12" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="AE12" s="1">
         <v>4</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AG12" s="1">
         <v>3</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN12" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO12" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="4">
@@ -2773,11 +2776,11 @@
         <v>3300</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="R13" s="1">
         <v>1</v>
@@ -2786,96 +2789,96 @@
         <v>0</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Z13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD13" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AE13" s="1">
         <v>4</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AG13" s="1">
         <v>1</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK13" s="3">
         <v>0.5</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN13" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO13" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="4"/>
@@ -2890,13 +2893,13 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="R14" s="1">
         <v>2</v>
@@ -2905,96 +2908,96 @@
         <v>-5</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Z14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD14" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AE14" s="1">
         <v>4</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AG14" s="1">
         <v>1</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK14" s="3">
         <v>0.5</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN14" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO14" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="4"/>
@@ -3011,13 +3014,13 @@
         <v>3000</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="R15" s="1">
         <v>1</v>
@@ -3026,96 +3029,96 @@
         <v>-10</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="Z15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD15" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AE15" s="1">
         <v>4</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG15" s="1">
         <v>1</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK15" s="3">
         <v>0.5</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN15" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO15" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="4"/>
@@ -3132,13 +3135,13 @@
         <v>2700</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="R16" s="1">
         <v>5</v>
@@ -3147,96 +3150,96 @@
         <v>5</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="Z16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD16" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="AE16" s="1">
         <v>3.5</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AG16" s="1">
         <v>5</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AK16" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="4"/>
@@ -3253,13 +3256,13 @@
         <v>2381</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="R17" s="1">
         <v>1</v>
@@ -3268,96 +3271,96 @@
         <v>0</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="Z17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD17" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AE17" s="1">
         <v>3.9</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AG17" s="1">
         <v>3</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AK17" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="4">
@@ -3374,7 +3377,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="R18" s="1">
         <v>1</v>
@@ -3383,96 +3386,96 @@
         <v>-5</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="Z18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD18" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AE18" s="1">
         <v>3.8</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AG18" s="1">
         <v>1</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK18" s="3">
         <v>0.5</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN18" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO18" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="4"/>
@@ -3489,13 +3492,13 @@
         <v>3800</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="R19" s="1">
         <v>1</v>
@@ -3504,96 +3507,96 @@
         <v>-10</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Z19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD19" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AE19" s="1">
         <v>4</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AG19" s="1">
         <v>2</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK19" s="3">
         <v>0.5</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN19" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO19" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="4"/>
@@ -3611,10 +3614,10 @@
       <c r="N20" s="4"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="R20" s="1">
         <v>1</v>
@@ -3623,96 +3626,96 @@
         <v>-10</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="AJ20" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="AK20" s="3">
         <v>0.2</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN20" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO20" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="4"/>
@@ -3729,105 +3732,105 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Z21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD21" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="AE21" s="1">
         <v>4.2</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AG21" s="1">
         <v>2</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AI21" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN21" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO21" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="4"/>
@@ -3844,109 +3847,109 @@
         <v>5000</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Z22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AD22" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AE22" s="1">
         <v>4</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AG22" s="1">
         <v>2</v>
       </c>
       <c r="AH22" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI22" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK22" s="3">
         <v>0.35</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AM22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN22" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AO22" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="E23" s="1">
         <v>400</v>
@@ -3964,7 +3967,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -3986,7 +3989,7 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK23" s="3">
         <v>0.5</v>
@@ -4002,16 +4005,16 @@
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="4"/>
@@ -4047,7 +4050,7 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="AK24" s="3">
         <v>0.55000000000000004</v>
@@ -4063,16 +4066,16 @@
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="4"/>
@@ -4108,7 +4111,7 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AK25" s="3">
         <v>0.5</v>

--- a/data-born.xlsx
+++ b/data-born.xlsx
@@ -857,9 +857,6 @@
     <t>https://codeforfukui.github.io/born/images_png/14.png</t>
   </si>
   <si>
-    <t>Name_ja</t>
-  </si>
-  <si>
     <t>Price_180mL</t>
   </si>
   <si>
@@ -890,12 +887,6 @@
     <t>Price_1800mL</t>
   </si>
   <si>
-    <t>Info_ja</t>
-  </si>
-  <si>
-    <t>Awards_ja</t>
-  </si>
-  <si>
     <t>AgedYear</t>
   </si>
   <si>
@@ -936,6 +927,15 @@
   </si>
   <si>
     <t>ServingSuggestion</t>
+  </si>
+  <si>
+    <t>Name@ja</t>
+  </si>
+  <si>
+    <t>Awards@ja</t>
+  </si>
+  <si>
+    <t>Info@ja</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>169</v>
@@ -1306,52 +1306,52 @@
         <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>2</v>
@@ -1381,19 +1381,19 @@
         <v>10</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>12</v>
@@ -1402,31 +1402,31 @@
         <v>13</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
